--- a/temp_authors.xlsx
+++ b/temp_authors.xlsx
@@ -34,6 +34,66 @@
     <t>text_reviews_count</t>
   </si>
   <si>
+    <t>1825</t>
+  </si>
+  <si>
+    <t>1077326</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>941441</t>
+  </si>
+  <si>
+    <t>988142</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>781570</t>
+  </si>
+  <si>
+    <t>3843</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>854076</t>
+  </si>
+  <si>
+    <t>3242</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>6569</t>
+  </si>
+  <si>
+    <t>5350</t>
+  </si>
+  <si>
+    <t>36746</t>
+  </si>
+  <si>
+    <t>1069006</t>
+  </si>
+  <si>
+    <t>3720</t>
+  </si>
+  <si>
+    <t>410653</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
     <t>3060790</t>
   </si>
   <si>
@@ -49,169 +109,169 @@
     <t>370361</t>
   </si>
   <si>
+    <t>12898</t>
+  </si>
+  <si>
+    <t>11466</t>
+  </si>
+  <si>
+    <t>4370565</t>
+  </si>
+  <si>
     <t>173491</t>
   </si>
   <si>
+    <t>17621440</t>
+  </si>
+  <si>
+    <t>7043934</t>
+  </si>
+  <si>
+    <t>9857504</t>
+  </si>
+  <si>
     <t>4349837</t>
   </si>
   <si>
-    <t>7043934</t>
-  </si>
-  <si>
-    <t>9857504</t>
-  </si>
-  <si>
-    <t>4370565</t>
-  </si>
-  <si>
-    <t>17621440</t>
-  </si>
-  <si>
-    <t>11466</t>
-  </si>
-  <si>
-    <t>12898</t>
-  </si>
-  <si>
-    <t>781570</t>
+    <t>378209</t>
+  </si>
+  <si>
+    <t>161399</t>
+  </si>
+  <si>
+    <t>1020792</t>
+  </si>
+  <si>
+    <t>5416412</t>
+  </si>
+  <si>
+    <t>3969859</t>
+  </si>
+  <si>
+    <t>3190</t>
+  </si>
+  <si>
+    <t>28186</t>
   </si>
   <si>
     <t>1315</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>3242</t>
-  </si>
-  <si>
-    <t>854076</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>3843</t>
+    <t>3472</t>
+  </si>
+  <si>
+    <t>6152025</t>
+  </si>
+  <si>
+    <t>3976667</t>
+  </si>
+  <si>
+    <t>1109791</t>
+  </si>
+  <si>
+    <t>61932</t>
+  </si>
+  <si>
+    <t>2331</t>
+  </si>
+  <si>
+    <t>3706</t>
+  </si>
+  <si>
+    <t>4280</t>
+  </si>
+  <si>
+    <t>45922</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>5144</t>
+  </si>
+  <si>
+    <t>11139</t>
+  </si>
+  <si>
+    <t>11978</t>
+  </si>
+  <si>
+    <t>8120</t>
   </si>
   <si>
     <t>153394</t>
   </si>
   <si>
-    <t>5350</t>
-  </si>
-  <si>
-    <t>5416412</t>
-  </si>
-  <si>
     <t>1406384</t>
   </si>
   <si>
-    <t>2331</t>
-  </si>
-  <si>
-    <t>3706</t>
-  </si>
-  <si>
-    <t>3190</t>
-  </si>
-  <si>
-    <t>3472</t>
-  </si>
-  <si>
-    <t>28186</t>
-  </si>
-  <si>
-    <t>378209</t>
-  </si>
-  <si>
-    <t>161399</t>
-  </si>
-  <si>
-    <t>3969859</t>
-  </si>
-  <si>
-    <t>45922</t>
-  </si>
-  <si>
-    <t>61932</t>
-  </si>
-  <si>
-    <t>1109791</t>
-  </si>
-  <si>
-    <t>6152025</t>
-  </si>
-  <si>
-    <t>4280</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>8120</t>
-  </si>
-  <si>
-    <t>410653</t>
-  </si>
-  <si>
-    <t>1265</t>
-  </si>
-  <si>
-    <t>947</t>
-  </si>
-  <si>
-    <t>36746</t>
-  </si>
-  <si>
-    <t>3720</t>
-  </si>
-  <si>
-    <t>1069006</t>
-  </si>
-  <si>
-    <t>5144</t>
-  </si>
-  <si>
-    <t>3976667</t>
-  </si>
-  <si>
-    <t>988142</t>
-  </si>
-  <si>
-    <t>6569</t>
-  </si>
-  <si>
-    <t>11139</t>
-  </si>
-  <si>
-    <t>1949</t>
-  </si>
-  <si>
-    <t>1077326</t>
-  </si>
-  <si>
     <t>585</t>
   </si>
   <si>
     <t>55118</t>
   </si>
   <si>
-    <t>11978</t>
-  </si>
-  <si>
-    <t>941441</t>
-  </si>
-  <si>
-    <t>1020792</t>
-  </si>
-  <si>
-    <t>2041</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>1825</t>
+    <t>Harper Lee</t>
+  </si>
+  <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
+    <t>William Golding</t>
+  </si>
+  <si>
+    <t>Frances Hodgson Burnett</t>
+  </si>
+  <si>
+    <t>Stephenie Meyer</t>
+  </si>
+  <si>
+    <t>E.B. White</t>
+  </si>
+  <si>
+    <t>Katherine Paterson</t>
+  </si>
+  <si>
+    <t>David Kenning</t>
+  </si>
+  <si>
+    <t>Kenneth Grahame</t>
+  </si>
+  <si>
+    <t>Jack London</t>
+  </si>
+  <si>
+    <t>Robert Louis Stevenson</t>
+  </si>
+  <si>
+    <t>L. Frank Baum</t>
+  </si>
+  <si>
+    <t>Johanna Spyri</t>
+  </si>
+  <si>
+    <t>Louis Sachar</t>
+  </si>
+  <si>
+    <t>L.M. Montgomery</t>
+  </si>
+  <si>
+    <t>Lemony Snicket</t>
+  </si>
+  <si>
+    <t>C.S. Lewis</t>
+  </si>
+  <si>
+    <t>Anne Frank</t>
+  </si>
+  <si>
+    <t>Astrid Lindgren</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
   </si>
   <si>
     <t>Daniel Flynn</t>
@@ -229,169 +289,169 @@
     <t>Patrick Ness</t>
   </si>
   <si>
+    <t>Stephen Chbosky</t>
+  </si>
+  <si>
+    <t>Markus Zusak</t>
+  </si>
+  <si>
+    <t>Erin Morgenstern</t>
+  </si>
+  <si>
     <t>E. Lockhart</t>
   </si>
   <si>
+    <t>Alex Michaelides</t>
+  </si>
+  <si>
+    <t>Delia Owens</t>
+  </si>
+  <si>
+    <t>Lynette Noni</t>
+  </si>
+  <si>
     <t>C.S. Pacat</t>
   </si>
   <si>
-    <t>Delia Owens</t>
-  </si>
-  <si>
-    <t>Lynette Noni</t>
-  </si>
-  <si>
-    <t>Erin Morgenstern</t>
-  </si>
-  <si>
-    <t>Alex Michaelides</t>
-  </si>
-  <si>
-    <t>Markus Zusak</t>
-  </si>
-  <si>
-    <t>Stephen Chbosky</t>
-  </si>
-  <si>
-    <t>David Kenning</t>
+    <t>Min Jin Lee</t>
+  </si>
+  <si>
+    <t>Edward Carey</t>
+  </si>
+  <si>
+    <t>Antoine de Saint-Exupéry</t>
+  </si>
+  <si>
+    <t>Grégoire Delacourt</t>
+  </si>
+  <si>
+    <t>C. Robert Cargill</t>
+  </si>
+  <si>
+    <t>F. Scott Fitzgerald</t>
+  </si>
+  <si>
+    <t>Anthony Doerr</t>
   </si>
   <si>
     <t>Louisa May Alcott</t>
   </si>
   <si>
-    <t>Johanna Spyri</t>
-  </si>
-  <si>
-    <t>L. Frank Baum</t>
-  </si>
-  <si>
-    <t>Robert Louis Stevenson</t>
-  </si>
-  <si>
-    <t>Jack London</t>
-  </si>
-  <si>
-    <t>Kenneth Grahame</t>
+    <t>Margaret Atwood</t>
+  </si>
+  <si>
+    <t>Sophie Mackintosh</t>
+  </si>
+  <si>
+    <t>William J.R. Curtis</t>
+  </si>
+  <si>
+    <t>Antony Radford</t>
+  </si>
+  <si>
+    <t>Paul Lewis</t>
+  </si>
+  <si>
+    <t>Mitch Albom</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Kazuo Ishiguro</t>
+  </si>
+  <si>
+    <t>Lionel Shriver</t>
+  </si>
+  <si>
+    <t>Jane Austen</t>
+  </si>
+  <si>
+    <t>Mark Haddon</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>Mary Wollstonecraft Shelley</t>
+  </si>
+  <si>
+    <t>John Keats</t>
+  </si>
+  <si>
+    <t>Arthur  Miller</t>
   </si>
   <si>
     <t>Suzanne Collins</t>
   </si>
   <si>
-    <t>L.M. Montgomery</t>
-  </si>
-  <si>
-    <t>Grégoire Delacourt</t>
-  </si>
-  <si>
     <t>John Green</t>
   </si>
   <si>
-    <t>Mitch Albom</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>F. Scott Fitzgerald</t>
-  </si>
-  <si>
-    <t>Margaret Atwood</t>
-  </si>
-  <si>
-    <t>Anthony Doerr</t>
-  </si>
-  <si>
-    <t>Min Jin Lee</t>
-  </si>
-  <si>
-    <t>Edward Carey</t>
-  </si>
-  <si>
-    <t>C. Robert Cargill</t>
-  </si>
-  <si>
-    <t>Lionel Shriver</t>
-  </si>
-  <si>
-    <t>Paul Lewis</t>
-  </si>
-  <si>
-    <t>Antony Radford</t>
-  </si>
-  <si>
-    <t>Sophie Mackintosh</t>
-  </si>
-  <si>
-    <t>Kazuo Ishiguro</t>
-  </si>
-  <si>
-    <t>Mark Haddon</t>
-  </si>
-  <si>
-    <t>Arthur  Miller</t>
-  </si>
-  <si>
-    <t>Astrid Lindgren</t>
-  </si>
-  <si>
-    <t>Jane Austen</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>Lemony Snicket</t>
-  </si>
-  <si>
-    <t>Anne Frank</t>
-  </si>
-  <si>
-    <t>C.S. Lewis</t>
-  </si>
-  <si>
-    <t>James Joyce</t>
-  </si>
-  <si>
-    <t>William J.R. Curtis</t>
-  </si>
-  <si>
-    <t>E.B. White</t>
-  </si>
-  <si>
-    <t>Louis Sachar</t>
-  </si>
-  <si>
-    <t>Mary Wollstonecraft Shelley</t>
-  </si>
-  <si>
-    <t>Katherine Paterson</t>
-  </si>
-  <si>
-    <t>J.K. Rowling</t>
-  </si>
-  <si>
     <t>John Steinbeck</t>
   </si>
   <si>
     <t>Kenneth Branagh</t>
   </si>
   <si>
-    <t>John Keats</t>
-  </si>
-  <si>
-    <t>Stephenie Meyer</t>
-  </si>
-  <si>
-    <t>Antoine de Saint-Exupéry</t>
-  </si>
-  <si>
-    <t>Frances Hodgson Burnett</t>
-  </si>
-  <si>
-    <t>William Golding</t>
-  </si>
-  <si>
-    <t>Harper Lee</t>
+    <t>https://www.goodreads.com/author/show/1825.Harper_Lee</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1077326.J_K_Rowling</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/306.William_Golding</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/2041.Frances_Hodgson_Burnett</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/941441.Stephenie_Meyer</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/988142.E_B_White</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1949.Katherine_Paterson</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/781570.David_Kenning</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3843.Kenneth_Grahame</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1240.Jack_London</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/854076.Robert_Louis_Stevenson</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3242.L_Frank_Baum</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/49.Johanna_Spyri</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/6569.Louis_Sachar</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/5350.L_M_Montgomery</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/36746.Lemony_Snicket</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1069006.C_S_Lewis</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3720.Anne_Frank</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/410653.Astrid_Lindgren</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/947.William_Shakespeare</t>
   </si>
   <si>
     <t>https://www.goodreads.com/author/show/3060790.Daniel_Flynn</t>
@@ -409,529 +469,469 @@
     <t>https://www.goodreads.com/author/show/370361.Patrick_Ness</t>
   </si>
   <si>
+    <t>https://www.goodreads.com/author/show/12898.Stephen_Chbosky</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/11466.Markus_Zusak</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/4370565.Erin_Morgenstern</t>
+  </si>
+  <si>
     <t>https://www.goodreads.com/author/show/173491.E_Lockhart</t>
   </si>
   <si>
+    <t>https://www.goodreads.com/author/show/17621440.Alex_Michaelides</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/7043934.Delia_Owens</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/9857504.Lynette_Noni</t>
+  </si>
+  <si>
     <t>https://www.goodreads.com/author/show/4349837.C_S_Pacat</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/author/show/7043934.Delia_Owens</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/9857504.Lynette_Noni</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/4370565.Erin_Morgenstern</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/17621440.Alex_Michaelides</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/11466.Markus_Zusak</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/12898.Stephen_Chbosky</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/781570.David_Kenning</t>
+    <t>https://www.goodreads.com/author/show/378209.Min_Jin_Lee</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/161399.Edward_Carey</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1020792.Antoine_de_Saint_Exup_ry</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/5416412.Gr_goire_Delacourt</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3969859.C_Robert_Cargill</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3190.F_Scott_Fitzgerald</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/28186.Anthony_Doerr</t>
   </si>
   <si>
     <t>https://www.goodreads.com/author/show/1315.Louisa_May_Alcott</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/author/show/49.Johanna_Spyri</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3242.L_Frank_Baum</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/854076.Robert_Louis_Stevenson</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1240.Jack_London</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3843.Kenneth_Grahame</t>
+    <t>https://www.goodreads.com/author/show/3472.Margaret_Atwood</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/6152025.Sophie_Mackintosh</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3976667.William_J_R_Curtis</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1109791.Antony_Radford</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/61932.Paul_Lewis</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/2331.Mitch_Albom</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3706.George_Orwell</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/4280.Kazuo_Ishiguro</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/45922.Lionel_Shriver</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1265.Jane_Austen</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1050.Mark_Haddon</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/5144.James_Joyce</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/11139.Mary_Wollstonecraft_Shelley</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/11978.John_Keats</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/8120.Arthur_Miller</t>
   </si>
   <si>
     <t>https://www.goodreads.com/author/show/153394.Suzanne_Collins</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/author/show/5350.L_M_Montgomery</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/5416412.Gr_goire_Delacourt</t>
-  </si>
-  <si>
     <t>https://www.goodreads.com/author/show/1406384.John_Green</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/author/show/2331.Mitch_Albom</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3706.George_Orwell</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3190.F_Scott_Fitzgerald</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3472.Margaret_Atwood</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/28186.Anthony_Doerr</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/378209.Min_Jin_Lee</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/161399.Edward_Carey</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3969859.C_Robert_Cargill</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/45922.Lionel_Shriver</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/61932.Paul_Lewis</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1109791.Antony_Radford</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/6152025.Sophie_Mackintosh</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/4280.Kazuo_Ishiguro</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1050.Mark_Haddon</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/8120.Arthur_Miller</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/410653.Astrid_Lindgren</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1265.Jane_Austen</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/947.William_Shakespeare</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/36746.Lemony_Snicket</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3720.Anne_Frank</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1069006.C_S_Lewis</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/5144.James_Joyce</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3976667.William_J_R_Curtis</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/988142.E_B_White</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/6569.Louis_Sachar</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/11139.Mary_Wollstonecraft_Shelley</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1949.Katherine_Paterson</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1077326.J_K_Rowling</t>
-  </si>
-  <si>
     <t>https://www.goodreads.com/author/show/585.John_Steinbeck</t>
   </si>
   <si>
     <t>https://www.goodreads.com/author/show/55118.Kenneth_Branagh</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/author/show/11978.John_Keats</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/941441.Stephenie_Meyer</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1020792.Antoine_de_Saint_Exup_ry</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/2041.Frances_Hodgson_Burnett</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/306.William_Golding</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1825.Harper_Lee</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>155778</t>
-  </si>
-  <si>
-    <t>128995</t>
-  </si>
-  <si>
-    <t>673751</t>
-  </si>
-  <si>
-    <t>629642</t>
-  </si>
-  <si>
-    <t>577745</t>
-  </si>
-  <si>
-    <t>190786</t>
-  </si>
-  <si>
-    <t>832718</t>
-  </si>
-  <si>
-    <t>20239</t>
-  </si>
-  <si>
-    <t>728946</t>
-  </si>
-  <si>
-    <t>414497</t>
-  </si>
-  <si>
-    <t>1957036</t>
-  </si>
-  <si>
-    <t>1240944</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>1896236</t>
-  </si>
-  <si>
-    <t>186600</t>
-  </si>
-  <si>
-    <t>550917</t>
-  </si>
-  <si>
-    <t>1077255</t>
-  </si>
-  <si>
-    <t>733282</t>
-  </si>
-  <si>
-    <t>184785</t>
-  </si>
-  <si>
-    <t>11479332</t>
-  </si>
-  <si>
-    <t>1583128</t>
-  </si>
-  <si>
-    <t>13889</t>
-  </si>
-  <si>
-    <t>6630197</t>
-  </si>
-  <si>
-    <t>1755275</t>
-  </si>
-  <si>
-    <t>6084019</t>
-  </si>
-  <si>
-    <t>4044560</t>
-  </si>
-  <si>
-    <t>2660582</t>
-  </si>
-  <si>
-    <t>1020173</t>
-  </si>
-  <si>
-    <t>201584</t>
-  </si>
-  <si>
-    <t>11461</t>
-  </si>
-  <si>
-    <t>14622</t>
-  </si>
-  <si>
-    <t>218073</t>
-  </si>
-  <si>
-    <t>812</t>
+    <t>4645028</t>
+  </si>
+  <si>
+    <t>25095470</t>
+  </si>
+  <si>
+    <t>2242645</t>
+  </si>
+  <si>
+    <t>1183919</t>
+  </si>
+  <si>
+    <t>10603070</t>
+  </si>
+  <si>
+    <t>1656452</t>
+  </si>
+  <si>
+    <t>514498</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>185709</t>
+  </si>
+  <si>
+    <t>737379</t>
+  </si>
+  <si>
+    <t>1083618</t>
+  </si>
+  <si>
+    <t>554088</t>
+  </si>
+  <si>
+    <t>187117</t>
+  </si>
+  <si>
+    <t>1216542</t>
+  </si>
+  <si>
+    <t>1591842</t>
+  </si>
+  <si>
+    <t>1961173</t>
+  </si>
+  <si>
+    <t>5758688</t>
+  </si>
+  <si>
+    <t>2725820</t>
+  </si>
+  <si>
+    <t>344479</t>
+  </si>
+  <si>
+    <t>6195714</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>156983</t>
+  </si>
+  <si>
+    <t>131311</t>
+  </si>
+  <si>
+    <t>683405</t>
+  </si>
+  <si>
+    <t>634716</t>
+  </si>
+  <si>
+    <t>1247610</t>
+  </si>
+  <si>
+    <t>1969010</t>
+  </si>
+  <si>
+    <t>737472</t>
+  </si>
+  <si>
+    <t>583443</t>
+  </si>
+  <si>
+    <t>433925</t>
+  </si>
+  <si>
+    <t>862960</t>
+  </si>
+  <si>
+    <t>20627</t>
+  </si>
+  <si>
+    <t>193989</t>
+  </si>
+  <si>
+    <t>205799</t>
+  </si>
+  <si>
+    <t>11585</t>
+  </si>
+  <si>
+    <t>1348357</t>
+  </si>
+  <si>
+    <t>14012</t>
+  </si>
+  <si>
+    <t>14732</t>
+  </si>
+  <si>
+    <t>4066088</t>
+  </si>
+  <si>
+    <t>1029459</t>
+  </si>
+  <si>
+    <t>1906420</t>
+  </si>
+  <si>
+    <t>2684058</t>
+  </si>
+  <si>
+    <t>18596</t>
+  </si>
+  <si>
+    <t>1130</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>17863</t>
-  </si>
-  <si>
-    <t>817647</t>
-  </si>
-  <si>
-    <t>1227914</t>
-  </si>
-  <si>
-    <t>549674</t>
-  </si>
-  <si>
-    <t>342865</t>
-  </si>
-  <si>
-    <t>5900626</t>
-  </si>
-  <si>
-    <t>6171606</t>
-  </si>
-  <si>
-    <t>1952999</t>
-  </si>
-  <si>
-    <t>2711786</t>
-  </si>
-  <si>
-    <t>5725553</t>
-  </si>
-  <si>
-    <t>412412</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1648495</t>
-  </si>
-  <si>
-    <t>1211464</t>
-  </si>
-  <si>
-    <t>1167163</t>
-  </si>
-  <si>
-    <t>511958</t>
-  </si>
-  <si>
-    <t>24935783</t>
-  </si>
-  <si>
-    <t>3675426</t>
-  </si>
-  <si>
-    <t>184656</t>
-  </si>
-  <si>
-    <t>52230</t>
-  </si>
-  <si>
-    <t>10555987</t>
-  </si>
-  <si>
-    <t>1336328</t>
-  </si>
-  <si>
-    <t>1178133</t>
-  </si>
-  <si>
-    <t>2233038</t>
-  </si>
-  <si>
-    <t>4622372</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>14781</t>
-  </si>
-  <si>
-    <t>25156</t>
-  </si>
-  <si>
-    <t>88384</t>
-  </si>
-  <si>
-    <t>86901</t>
-  </si>
-  <si>
-    <t>63879</t>
-  </si>
-  <si>
-    <t>25476</t>
-  </si>
-  <si>
-    <t>77429</t>
-  </si>
-  <si>
-    <t>3070</t>
-  </si>
-  <si>
-    <t>86736</t>
-  </si>
-  <si>
-    <t>43309</t>
-  </si>
-  <si>
-    <t>131955</t>
-  </si>
-  <si>
-    <t>61196</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>43053</t>
-  </si>
-  <si>
-    <t>4395</t>
-  </si>
-  <si>
-    <t>22621</t>
-  </si>
-  <si>
-    <t>35663</t>
-  </si>
-  <si>
-    <t>26262</t>
-  </si>
-  <si>
-    <t>6765</t>
-  </si>
-  <si>
-    <t>403507</t>
-  </si>
-  <si>
-    <t>55152</t>
-  </si>
-  <si>
-    <t>2130</t>
-  </si>
-  <si>
-    <t>348077</t>
-  </si>
-  <si>
-    <t>83757</t>
-  </si>
-  <si>
-    <t>138967</t>
-  </si>
-  <si>
-    <t>87705</t>
-  </si>
-  <si>
-    <t>168393</t>
-  </si>
-  <si>
-    <t>79335</t>
-  </si>
-  <si>
-    <t>20966</t>
-  </si>
-  <si>
-    <t>1838</t>
-  </si>
-  <si>
-    <t>2174</t>
-  </si>
-  <si>
-    <t>23090</t>
+    <t>819</t>
+  </si>
+  <si>
+    <t>1763279</t>
+  </si>
+  <si>
+    <t>6134327</t>
+  </si>
+  <si>
+    <t>823660</t>
+  </si>
+  <si>
+    <t>219917</t>
+  </si>
+  <si>
+    <t>5932949</t>
+  </si>
+  <si>
+    <t>1233576</t>
+  </si>
+  <si>
+    <t>414191</t>
+  </si>
+  <si>
+    <t>1173223</t>
+  </si>
+  <si>
+    <t>52507</t>
+  </si>
+  <si>
+    <t>552033</t>
+  </si>
+  <si>
+    <t>11557248</t>
+  </si>
+  <si>
+    <t>6671507</t>
+  </si>
+  <si>
+    <t>3691123</t>
+  </si>
+  <si>
+    <t>184825</t>
+  </si>
+  <si>
+    <t>119679</t>
+  </si>
+  <si>
+    <t>576151</t>
+  </si>
+  <si>
+    <t>38059</t>
+  </si>
+  <si>
+    <t>28506</t>
+  </si>
+  <si>
+    <t>318928</t>
+  </si>
+  <si>
+    <t>28528</t>
+  </si>
+  <si>
+    <t>19204</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>6816</t>
+  </si>
+  <si>
+    <t>26434</t>
+  </si>
+  <si>
+    <t>35973</t>
+  </si>
+  <si>
+    <t>22777</t>
+  </si>
+  <si>
+    <t>4436</t>
+  </si>
+  <si>
+    <t>33059</t>
+  </si>
+  <si>
+    <t>55742</t>
+  </si>
+  <si>
+    <t>72015</t>
+  </si>
+  <si>
+    <t>134104</t>
+  </si>
+  <si>
+    <t>29890</t>
+  </si>
+  <si>
+    <t>9780</t>
+  </si>
+  <si>
+    <t>114241</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>14897</t>
+  </si>
+  <si>
+    <t>25464</t>
+  </si>
+  <si>
+    <t>89384</t>
+  </si>
+  <si>
+    <t>87414</t>
+  </si>
+  <si>
+    <t>61649</t>
+  </si>
+  <si>
+    <t>132486</t>
+  </si>
+  <si>
+    <t>87787</t>
+  </si>
+  <si>
+    <t>64434</t>
+  </si>
+  <si>
+    <t>44941</t>
+  </si>
+  <si>
+    <t>79710</t>
+  </si>
+  <si>
+    <t>3113</t>
+  </si>
+  <si>
+    <t>25867</t>
+  </si>
+  <si>
+    <t>21331</t>
+  </si>
+  <si>
+    <t>1851</t>
+  </si>
+  <si>
+    <t>41160</t>
+  </si>
+  <si>
+    <t>2148</t>
+  </si>
+  <si>
+    <t>2196</t>
+  </si>
+  <si>
+    <t>88266</t>
+  </si>
+  <si>
+    <t>79763</t>
+  </si>
+  <si>
+    <t>43598</t>
+  </si>
+  <si>
+    <t>169808</t>
+  </si>
+  <si>
+    <t>2689</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2553</t>
-  </si>
-  <si>
-    <t>63561</t>
-  </si>
-  <si>
-    <t>51407</t>
-  </si>
-  <si>
-    <t>14929</t>
-  </si>
-  <si>
-    <t>9701</t>
-  </si>
-  <si>
-    <t>166798</t>
-  </si>
-  <si>
-    <t>113451</t>
-  </si>
-  <si>
-    <t>71723</t>
-  </si>
-  <si>
-    <t>29657</t>
-  </si>
-  <si>
-    <t>133013</t>
-  </si>
-  <si>
-    <t>21228</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>28387</t>
-  </si>
-  <si>
-    <t>32904</t>
-  </si>
-  <si>
-    <t>34600</t>
-  </si>
-  <si>
-    <t>19096</t>
-  </si>
-  <si>
-    <t>572691</t>
-  </si>
-  <si>
-    <t>103188</t>
-  </si>
-  <si>
-    <t>984</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>317786</t>
-  </si>
-  <si>
-    <t>40715</t>
-  </si>
-  <si>
-    <t>28270</t>
-  </si>
-  <si>
-    <t>37857</t>
-  </si>
-  <si>
-    <t>119189</t>
+    <t>84227</t>
+  </si>
+  <si>
+    <t>140277</t>
+  </si>
+  <si>
+    <t>63998</t>
+  </si>
+  <si>
+    <t>23197</t>
+  </si>
+  <si>
+    <t>168391</t>
+  </si>
+  <si>
+    <t>51599</t>
+  </si>
+  <si>
+    <t>21357</t>
+  </si>
+  <si>
+    <t>34878</t>
+  </si>
+  <si>
+    <t>2269</t>
+  </si>
+  <si>
+    <t>14998</t>
+  </si>
+  <si>
+    <t>407010</t>
+  </si>
+  <si>
+    <t>349085</t>
+  </si>
+  <si>
+    <t>103758</t>
+  </si>
+  <si>
+    <t>992</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1342,7 @@
         <v>126</v>
       </c>
       <c r="E2">
-        <v>4.19</v>
+        <v>4.23</v>
       </c>
       <c r="F2" t="s">
         <v>186</v>
@@ -1365,7 +1365,7 @@
         <v>127</v>
       </c>
       <c r="E3">
-        <v>3.88</v>
+        <v>4.46</v>
       </c>
       <c r="F3" t="s">
         <v>187</v>
@@ -1388,7 +1388,7 @@
         <v>128</v>
       </c>
       <c r="E4">
-        <v>4.1</v>
+        <v>3.68</v>
       </c>
       <c r="F4" t="s">
         <v>188</v>
@@ -1411,7 +1411,7 @@
         <v>129</v>
       </c>
       <c r="E5">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
       <c r="F5" t="s">
         <v>189</v>
@@ -1434,7 +1434,7 @@
         <v>130</v>
       </c>
       <c r="E6">
-        <v>4.12</v>
+        <v>3.65</v>
       </c>
       <c r="F6" t="s">
         <v>190</v>
@@ -1457,7 +1457,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>3.78</v>
+        <v>4.15</v>
       </c>
       <c r="F7" t="s">
         <v>191</v>
@@ -1480,7 +1480,7 @@
         <v>132</v>
       </c>
       <c r="E8">
-        <v>4.19</v>
+        <v>3.97</v>
       </c>
       <c r="F8" t="s">
         <v>192</v>
@@ -1503,7 +1503,7 @@
         <v>133</v>
       </c>
       <c r="E9">
-        <v>4.48</v>
+        <v>3.56</v>
       </c>
       <c r="F9" t="s">
         <v>193</v>
@@ -1526,7 +1526,7 @@
         <v>134</v>
       </c>
       <c r="E10">
-        <v>4.42</v>
+        <v>3.99</v>
       </c>
       <c r="F10" t="s">
         <v>194</v>
@@ -1549,7 +1549,7 @@
         <v>135</v>
       </c>
       <c r="E11">
-        <v>4.02</v>
+        <v>3.96</v>
       </c>
       <c r="F11" t="s">
         <v>195</v>
@@ -1572,7 +1572,7 @@
         <v>136</v>
       </c>
       <c r="E12">
-        <v>4.09</v>
+        <v>3.85</v>
       </c>
       <c r="F12" t="s">
         <v>196</v>
@@ -1595,7 +1595,7 @@
         <v>137</v>
       </c>
       <c r="E13">
-        <v>4.34</v>
+        <v>3.97</v>
       </c>
       <c r="F13" t="s">
         <v>197</v>
@@ -1618,7 +1618,7 @@
         <v>138</v>
       </c>
       <c r="E14">
-        <v>4.19</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>198</v>
@@ -1641,7 +1641,7 @@
         <v>139</v>
       </c>
       <c r="E15">
-        <v>3.55</v>
+        <v>3.99</v>
       </c>
       <c r="F15" t="s">
         <v>199</v>
@@ -1664,7 +1664,7 @@
         <v>140</v>
       </c>
       <c r="E16">
-        <v>4.06</v>
+        <v>4.22</v>
       </c>
       <c r="F16" t="s">
         <v>200</v>
@@ -1687,7 +1687,7 @@
         <v>141</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="F17" t="s">
         <v>201</v>
@@ -1710,7 +1710,7 @@
         <v>142</v>
       </c>
       <c r="E18">
-        <v>3.97</v>
+        <v>4.15</v>
       </c>
       <c r="F18" t="s">
         <v>202</v>
@@ -1733,7 +1733,7 @@
         <v>143</v>
       </c>
       <c r="E19">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="F19" t="s">
         <v>203</v>
@@ -1756,7 +1756,7 @@
         <v>144</v>
       </c>
       <c r="E20">
-        <v>3.96</v>
+        <v>4.18</v>
       </c>
       <c r="F20" t="s">
         <v>204</v>
@@ -1779,7 +1779,7 @@
         <v>145</v>
       </c>
       <c r="E21">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="F21" t="s">
         <v>205</v>
@@ -1802,7 +1802,7 @@
         <v>146</v>
       </c>
       <c r="E22">
-        <v>4.26</v>
+        <v>4.2</v>
       </c>
       <c r="F22" t="s">
         <v>206</v>
@@ -1825,7 +1825,7 @@
         <v>147</v>
       </c>
       <c r="E23">
-        <v>4.22</v>
+        <v>3.88</v>
       </c>
       <c r="F23" t="s">
         <v>207</v>
@@ -1848,7 +1848,7 @@
         <v>148</v>
       </c>
       <c r="E24">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="F24" t="s">
         <v>208</v>
@@ -1871,7 +1871,7 @@
         <v>149</v>
       </c>
       <c r="E25">
-        <v>4.04</v>
+        <v>4.22</v>
       </c>
       <c r="F25" t="s">
         <v>209</v>
@@ -1894,7 +1894,7 @@
         <v>150</v>
       </c>
       <c r="E26">
-        <v>4.04</v>
+        <v>4.12</v>
       </c>
       <c r="F26" t="s">
         <v>210</v>
@@ -1917,7 +1917,7 @@
         <v>151</v>
       </c>
       <c r="E27">
-        <v>4.07</v>
+        <v>4.19</v>
       </c>
       <c r="F27" t="s">
         <v>211</v>
@@ -1940,7 +1940,7 @@
         <v>152</v>
       </c>
       <c r="E28">
-        <v>3.91</v>
+        <v>4.34</v>
       </c>
       <c r="F28" t="s">
         <v>212</v>
@@ -1963,7 +1963,7 @@
         <v>153</v>
       </c>
       <c r="E29">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="F29" t="s">
         <v>213</v>
@@ -1986,7 +1986,7 @@
         <v>154</v>
       </c>
       <c r="E30">
-        <v>4.31</v>
+        <v>3.78</v>
       </c>
       <c r="F30" t="s">
         <v>214</v>
@@ -2009,7 +2009,7 @@
         <v>155</v>
       </c>
       <c r="E31">
-        <v>4.23</v>
+        <v>4.09</v>
       </c>
       <c r="F31" t="s">
         <v>215</v>
@@ -2032,7 +2032,7 @@
         <v>156</v>
       </c>
       <c r="E32">
-        <v>3.89</v>
+        <v>4.48</v>
       </c>
       <c r="F32" t="s">
         <v>216</v>
@@ -2055,7 +2055,7 @@
         <v>157</v>
       </c>
       <c r="E33">
-        <v>3.9</v>
+        <v>4.43</v>
       </c>
       <c r="F33" t="s">
         <v>217</v>
@@ -2078,7 +2078,7 @@
         <v>158</v>
       </c>
       <c r="E34">
-        <v>3.91</v>
+        <v>4.19</v>
       </c>
       <c r="F34" t="s">
         <v>218</v>
@@ -2101,7 +2101,7 @@
         <v>159</v>
       </c>
       <c r="E35">
-        <v>4.02</v>
+        <v>4.23</v>
       </c>
       <c r="F35" t="s">
         <v>219</v>
@@ -2124,7 +2124,7 @@
         <v>160</v>
       </c>
       <c r="E36">
-        <v>4.4</v>
+        <v>3.89</v>
       </c>
       <c r="F36" t="s">
         <v>220</v>
@@ -2147,7 +2147,7 @@
         <v>161</v>
       </c>
       <c r="E37">
-        <v>3.31</v>
+        <v>4.3</v>
       </c>
       <c r="F37" t="s">
         <v>221</v>
@@ -2170,7 +2170,7 @@
         <v>162</v>
       </c>
       <c r="E38">
-        <v>3.84</v>
+        <v>3.55</v>
       </c>
       <c r="F38" t="s">
         <v>222</v>
@@ -2193,7 +2193,7 @@
         <v>163</v>
       </c>
       <c r="E39">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="F39" t="s">
         <v>223</v>
@@ -2216,7 +2216,7 @@
         <v>164</v>
       </c>
       <c r="E40">
-        <v>3.59</v>
+        <v>3.91</v>
       </c>
       <c r="F40" t="s">
         <v>224</v>
@@ -2239,7 +2239,7 @@
         <v>165</v>
       </c>
       <c r="E41">
-        <v>4.18</v>
+        <v>4.31</v>
       </c>
       <c r="F41" t="s">
         <v>225</v>
@@ -2262,7 +2262,7 @@
         <v>166</v>
       </c>
       <c r="E42">
-        <v>4.12</v>
+        <v>4.06</v>
       </c>
       <c r="F42" t="s">
         <v>226</v>
@@ -2285,7 +2285,7 @@
         <v>167</v>
       </c>
       <c r="E43">
-        <v>3.87</v>
+        <v>4.03</v>
       </c>
       <c r="F43" t="s">
         <v>227</v>
@@ -2308,7 +2308,7 @@
         <v>168</v>
       </c>
       <c r="E44">
-        <v>3.97</v>
+        <v>3.31</v>
       </c>
       <c r="F44" t="s">
         <v>228</v>
@@ -2331,7 +2331,7 @@
         <v>169</v>
       </c>
       <c r="E45">
-        <v>4.15</v>
+        <v>4.08</v>
       </c>
       <c r="F45" t="s">
         <v>229</v>
@@ -2354,7 +2354,7 @@
         <v>170</v>
       </c>
       <c r="E46">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="F46" t="s">
         <v>230</v>
@@ -2377,7 +2377,7 @@
         <v>171</v>
       </c>
       <c r="E47">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="F47" t="s">
         <v>231</v>
@@ -2400,7 +2400,7 @@
         <v>172</v>
       </c>
       <c r="E48">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="F48" t="s">
         <v>232</v>
@@ -2423,7 +2423,7 @@
         <v>173</v>
       </c>
       <c r="E49">
-        <v>4.15</v>
+        <v>4.08</v>
       </c>
       <c r="F49" t="s">
         <v>233</v>
@@ -2446,7 +2446,7 @@
         <v>174</v>
       </c>
       <c r="E50">
-        <v>3.99</v>
+        <v>3.84</v>
       </c>
       <c r="F50" t="s">
         <v>234</v>
@@ -2469,7 +2469,7 @@
         <v>175</v>
       </c>
       <c r="E51">
-        <v>3.8</v>
+        <v>3.91</v>
       </c>
       <c r="F51" t="s">
         <v>235</v>
@@ -2492,7 +2492,7 @@
         <v>176</v>
       </c>
       <c r="E52">
-        <v>3.97</v>
+        <v>4.12</v>
       </c>
       <c r="F52" t="s">
         <v>236</v>
@@ -2515,7 +2515,7 @@
         <v>177</v>
       </c>
       <c r="E53">
-        <v>4.46</v>
+        <v>3.86</v>
       </c>
       <c r="F53" t="s">
         <v>237</v>
@@ -2538,7 +2538,7 @@
         <v>178</v>
       </c>
       <c r="E54">
-        <v>3.94</v>
+        <v>3.74</v>
       </c>
       <c r="F54" t="s">
         <v>238</v>
@@ -2561,7 +2561,7 @@
         <v>179</v>
       </c>
       <c r="E55">
-        <v>4.13</v>
+        <v>3.81</v>
       </c>
       <c r="F55" t="s">
         <v>239</v>
@@ -2607,7 +2607,7 @@
         <v>181</v>
       </c>
       <c r="E57">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="F57" t="s">
         <v>241</v>
@@ -2630,7 +2630,7 @@
         <v>182</v>
       </c>
       <c r="E58">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="F58" t="s">
         <v>242</v>
@@ -2653,7 +2653,7 @@
         <v>183</v>
       </c>
       <c r="E59">
-        <v>4.14</v>
+        <v>4.04</v>
       </c>
       <c r="F59" t="s">
         <v>243</v>
@@ -2676,7 +2676,7 @@
         <v>184</v>
       </c>
       <c r="E60">
-        <v>3.68</v>
+        <v>3.94</v>
       </c>
       <c r="F60" t="s">
         <v>244</v>
@@ -2699,7 +2699,7 @@
         <v>185</v>
       </c>
       <c r="E61">
-        <v>4.23</v>
+        <v>4.13</v>
       </c>
       <c r="F61" t="s">
         <v>245</v>

--- a/temp_authors.xlsx
+++ b/temp_authors.xlsx
@@ -16,18 +16,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
+    <t>average_rating</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>link</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>average_rating</t>
-  </si>
-  <si>
     <t>ratings_count</t>
   </si>
   <si>
@@ -214,6 +214,186 @@
     <t>55118</t>
   </si>
   <si>
+    <t>https://www.goodreads.com/author/show/1825.Harper_Lee</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1077326.J_K_Rowling</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/306.William_Golding</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/2041.Frances_Hodgson_Burnett</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/941441.Stephenie_Meyer</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/988142.E_B_White</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1949.Katherine_Paterson</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/781570.David_Kenning</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3843.Kenneth_Grahame</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1240.Jack_London</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/854076.Robert_Louis_Stevenson</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3242.L_Frank_Baum</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/49.Johanna_Spyri</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/6569.Louis_Sachar</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/5350.L_M_Montgomery</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/36746.Lemony_Snicket</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1069006.C_S_Lewis</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3720.Anne_Frank</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/410653.Astrid_Lindgren</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/947.William_Shakespeare</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3060790.Daniel_Flynn</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/13199.Alain_de_Botton</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/7327341.Mackenzi_Lee</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/19564.Neal_Shusterman</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/370361.Patrick_Ness</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/12898.Stephen_Chbosky</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/11466.Markus_Zusak</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/4370565.Erin_Morgenstern</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/173491.E_Lockhart</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/17621440.Alex_Michaelides</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/7043934.Delia_Owens</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/9857504.Lynette_Noni</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/4349837.C_S_Pacat</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/378209.Min_Jin_Lee</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/161399.Edward_Carey</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1020792.Antoine_de_Saint_Exup_ry</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/5416412.Gr_goire_Delacourt</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3969859.C_Robert_Cargill</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3190.F_Scott_Fitzgerald</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/28186.Anthony_Doerr</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1315.Louisa_May_Alcott</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3472.Margaret_Atwood</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/6152025.Sophie_Mackintosh</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3976667.William_J_R_Curtis</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1109791.Antony_Radford</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/61932.Paul_Lewis</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/2331.Mitch_Albom</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/3706.George_Orwell</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/4280.Kazuo_Ishiguro</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/45922.Lionel_Shriver</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1265.Jane_Austen</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1050.Mark_Haddon</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/5144.James_Joyce</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/11139.Mary_Wollstonecraft_Shelley</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/11978.John_Keats</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/8120.Arthur_Miller</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/153394.Suzanne_Collins</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/1406384.John_Green</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/585.John_Steinbeck</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/author/show/55118.Kenneth_Branagh</t>
+  </si>
+  <si>
     <t>Harper Lee</t>
   </si>
   <si>
@@ -392,186 +572,6 @@
   </si>
   <si>
     <t>Kenneth Branagh</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1825.Harper_Lee</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1077326.J_K_Rowling</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/306.William_Golding</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/2041.Frances_Hodgson_Burnett</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/941441.Stephenie_Meyer</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/988142.E_B_White</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1949.Katherine_Paterson</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/781570.David_Kenning</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3843.Kenneth_Grahame</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1240.Jack_London</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/854076.Robert_Louis_Stevenson</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3242.L_Frank_Baum</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/49.Johanna_Spyri</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/6569.Louis_Sachar</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/5350.L_M_Montgomery</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/36746.Lemony_Snicket</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1069006.C_S_Lewis</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3720.Anne_Frank</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/410653.Astrid_Lindgren</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/947.William_Shakespeare</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3060790.Daniel_Flynn</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/13199.Alain_de_Botton</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/7327341.Mackenzi_Lee</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/19564.Neal_Shusterman</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/370361.Patrick_Ness</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/12898.Stephen_Chbosky</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/11466.Markus_Zusak</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/4370565.Erin_Morgenstern</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/173491.E_Lockhart</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/17621440.Alex_Michaelides</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/7043934.Delia_Owens</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/9857504.Lynette_Noni</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/4349837.C_S_Pacat</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/378209.Min_Jin_Lee</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/161399.Edward_Carey</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1020792.Antoine_de_Saint_Exup_ry</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/5416412.Gr_goire_Delacourt</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3969859.C_Robert_Cargill</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3190.F_Scott_Fitzgerald</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/28186.Anthony_Doerr</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1315.Louisa_May_Alcott</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3472.Margaret_Atwood</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/6152025.Sophie_Mackintosh</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3976667.William_J_R_Curtis</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1109791.Antony_Radford</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/61932.Paul_Lewis</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/2331.Mitch_Albom</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/3706.George_Orwell</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/4280.Kazuo_Ishiguro</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/45922.Lionel_Shriver</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1265.Jane_Austen</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1050.Mark_Haddon</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/5144.James_Joyce</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/11139.Mary_Wollstonecraft_Shelley</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/11978.John_Keats</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/8120.Arthur_Miller</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/153394.Suzanne_Collins</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/1406384.John_Green</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/585.John_Steinbeck</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/author/show/55118.Kenneth_Branagh</t>
   </si>
   <si>
     <t>4645028</t>
@@ -1332,17 +1332,17 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>4.23</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>126</v>
-      </c>
-      <c r="E2">
-        <v>4.23</v>
       </c>
       <c r="F2" t="s">
         <v>186</v>
@@ -1355,17 +1355,17 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>4.46</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" t="s">
         <v>127</v>
-      </c>
-      <c r="E3">
-        <v>4.46</v>
       </c>
       <c r="F3" t="s">
         <v>187</v>
@@ -1378,17 +1378,17 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3.68</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" t="s">
         <v>128</v>
-      </c>
-      <c r="E4">
-        <v>3.68</v>
       </c>
       <c r="F4" t="s">
         <v>188</v>
@@ -1401,17 +1401,17 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>4.14</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" t="s">
         <v>129</v>
-      </c>
-      <c r="E5">
-        <v>4.14</v>
       </c>
       <c r="F5" t="s">
         <v>189</v>
@@ -1424,17 +1424,17 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>3.65</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
         <v>130</v>
-      </c>
-      <c r="E6">
-        <v>3.65</v>
       </c>
       <c r="F6" t="s">
         <v>190</v>
@@ -1447,17 +1447,17 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>4.15</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" t="s">
         <v>131</v>
-      </c>
-      <c r="E7">
-        <v>4.15</v>
       </c>
       <c r="F7" t="s">
         <v>191</v>
@@ -1470,17 +1470,17 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>3.97</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" t="s">
         <v>132</v>
-      </c>
-      <c r="E8">
-        <v>3.97</v>
       </c>
       <c r="F8" t="s">
         <v>192</v>
@@ -1493,17 +1493,17 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>3.56</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" t="s">
         <v>133</v>
-      </c>
-      <c r="E9">
-        <v>3.56</v>
       </c>
       <c r="F9" t="s">
         <v>193</v>
@@ -1516,17 +1516,17 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>3.99</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" t="s">
         <v>134</v>
-      </c>
-      <c r="E10">
-        <v>3.99</v>
       </c>
       <c r="F10" t="s">
         <v>194</v>
@@ -1539,17 +1539,17 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>3.96</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" t="s">
         <v>135</v>
-      </c>
-      <c r="E11">
-        <v>3.96</v>
       </c>
       <c r="F11" t="s">
         <v>195</v>
@@ -1562,17 +1562,17 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>3.85</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" t="s">
         <v>136</v>
-      </c>
-      <c r="E12">
-        <v>3.85</v>
       </c>
       <c r="F12" t="s">
         <v>196</v>
@@ -1585,17 +1585,17 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>3.97</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" t="s">
         <v>137</v>
-      </c>
-      <c r="E13">
-        <v>3.97</v>
       </c>
       <c r="F13" t="s">
         <v>197</v>
@@ -1608,17 +1608,17 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" t="s">
         <v>138</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>198</v>
@@ -1631,17 +1631,17 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>3.99</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" t="s">
         <v>139</v>
-      </c>
-      <c r="E15">
-        <v>3.99</v>
       </c>
       <c r="F15" t="s">
         <v>199</v>
@@ -1654,17 +1654,17 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>4.22</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" t="s">
         <v>140</v>
-      </c>
-      <c r="E16">
-        <v>4.22</v>
       </c>
       <c r="F16" t="s">
         <v>200</v>
@@ -1677,17 +1677,17 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>3.97</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" t="s">
         <v>141</v>
-      </c>
-      <c r="E17">
-        <v>3.97</v>
       </c>
       <c r="F17" t="s">
         <v>201</v>
@@ -1700,17 +1700,17 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>4.15</v>
+      </c>
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" t="s">
         <v>142</v>
-      </c>
-      <c r="E18">
-        <v>4.15</v>
       </c>
       <c r="F18" t="s">
         <v>202</v>
@@ -1723,17 +1723,17 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>4.15</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" t="s">
         <v>143</v>
-      </c>
-      <c r="E19">
-        <v>4.15</v>
       </c>
       <c r="F19" t="s">
         <v>203</v>
@@ -1746,17 +1746,17 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>4.18</v>
+      </c>
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" t="s">
         <v>144</v>
-      </c>
-      <c r="E20">
-        <v>4.18</v>
       </c>
       <c r="F20" t="s">
         <v>204</v>
@@ -1769,17 +1769,17 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>3.87</v>
+      </c>
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" t="s">
         <v>145</v>
-      </c>
-      <c r="E21">
-        <v>3.87</v>
       </c>
       <c r="F21" t="s">
         <v>205</v>
@@ -1792,17 +1792,17 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>4.2</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" t="s">
         <v>146</v>
-      </c>
-      <c r="E22">
-        <v>4.2</v>
       </c>
       <c r="F22" t="s">
         <v>206</v>
@@ -1815,17 +1815,17 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>3.88</v>
+      </c>
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" t="s">
         <v>147</v>
-      </c>
-      <c r="E23">
-        <v>3.88</v>
       </c>
       <c r="F23" t="s">
         <v>207</v>
@@ -1838,17 +1838,17 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>4.1</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" t="s">
         <v>148</v>
-      </c>
-      <c r="E24">
-        <v>4.1</v>
       </c>
       <c r="F24" t="s">
         <v>208</v>
@@ -1861,17 +1861,17 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>4.22</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" t="s">
         <v>149</v>
-      </c>
-      <c r="E25">
-        <v>4.22</v>
       </c>
       <c r="F25" t="s">
         <v>209</v>
@@ -1884,17 +1884,17 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>4.12</v>
+      </c>
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" t="s">
         <v>150</v>
-      </c>
-      <c r="E26">
-        <v>4.12</v>
       </c>
       <c r="F26" t="s">
         <v>210</v>
@@ -1907,17 +1907,17 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>4.19</v>
+      </c>
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" t="s">
         <v>151</v>
-      </c>
-      <c r="E27">
-        <v>4.19</v>
       </c>
       <c r="F27" t="s">
         <v>211</v>
@@ -1930,17 +1930,17 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>4.34</v>
+      </c>
+      <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" t="s">
         <v>152</v>
-      </c>
-      <c r="E28">
-        <v>4.34</v>
       </c>
       <c r="F28" t="s">
         <v>212</v>
@@ -1953,17 +1953,17 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>4.02</v>
+      </c>
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" t="s">
         <v>153</v>
-      </c>
-      <c r="E29">
-        <v>4.02</v>
       </c>
       <c r="F29" t="s">
         <v>213</v>
@@ -1976,17 +1976,17 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>3.78</v>
+      </c>
+      <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" t="s">
         <v>154</v>
-      </c>
-      <c r="E30">
-        <v>3.78</v>
       </c>
       <c r="F30" t="s">
         <v>214</v>
@@ -1999,17 +1999,17 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>4.09</v>
+      </c>
+      <c r="C31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" t="s">
         <v>155</v>
-      </c>
-      <c r="E31">
-        <v>4.09</v>
       </c>
       <c r="F31" t="s">
         <v>215</v>
@@ -2022,17 +2022,17 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>4.48</v>
+      </c>
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" t="s">
         <v>156</v>
-      </c>
-      <c r="E32">
-        <v>4.48</v>
       </c>
       <c r="F32" t="s">
         <v>216</v>
@@ -2045,17 +2045,17 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>4.43</v>
+      </c>
+      <c r="C33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" t="s">
         <v>157</v>
-      </c>
-      <c r="E33">
-        <v>4.43</v>
       </c>
       <c r="F33" t="s">
         <v>217</v>
@@ -2068,17 +2068,17 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>4.19</v>
+      </c>
+      <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" t="s">
         <v>158</v>
-      </c>
-      <c r="E34">
-        <v>4.19</v>
       </c>
       <c r="F34" t="s">
         <v>218</v>
@@ -2091,17 +2091,17 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>4.23</v>
+      </c>
+      <c r="C35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" t="s">
         <v>159</v>
-      </c>
-      <c r="E35">
-        <v>4.23</v>
       </c>
       <c r="F35" t="s">
         <v>219</v>
@@ -2114,17 +2114,17 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>3.89</v>
+      </c>
+      <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" t="s">
         <v>160</v>
-      </c>
-      <c r="E36">
-        <v>3.89</v>
       </c>
       <c r="F36" t="s">
         <v>220</v>
@@ -2137,17 +2137,17 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>4.3</v>
+      </c>
+      <c r="C37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" t="s">
         <v>161</v>
-      </c>
-      <c r="E37">
-        <v>4.3</v>
       </c>
       <c r="F37" t="s">
         <v>221</v>
@@ -2160,17 +2160,17 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>3.55</v>
+      </c>
+      <c r="C38" t="s">
         <v>42</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" t="s">
         <v>162</v>
-      </c>
-      <c r="E38">
-        <v>3.55</v>
       </c>
       <c r="F38" t="s">
         <v>222</v>
@@ -2183,17 +2183,17 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>3.9</v>
+      </c>
+      <c r="C39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" t="s">
         <v>163</v>
-      </c>
-      <c r="E39">
-        <v>3.9</v>
       </c>
       <c r="F39" t="s">
         <v>223</v>
@@ -2206,17 +2206,17 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>3.91</v>
+      </c>
+      <c r="C40" t="s">
         <v>44</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" t="s">
         <v>164</v>
-      </c>
-      <c r="E40">
-        <v>3.91</v>
       </c>
       <c r="F40" t="s">
         <v>224</v>
@@ -2229,17 +2229,17 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>4.31</v>
+      </c>
+      <c r="C41" t="s">
         <v>45</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" t="s">
         <v>165</v>
-      </c>
-      <c r="E41">
-        <v>4.31</v>
       </c>
       <c r="F41" t="s">
         <v>225</v>
@@ -2252,17 +2252,17 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>4.06</v>
+      </c>
+      <c r="C42" t="s">
         <v>46</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" t="s">
         <v>166</v>
-      </c>
-      <c r="E42">
-        <v>4.06</v>
       </c>
       <c r="F42" t="s">
         <v>226</v>
@@ -2275,17 +2275,17 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>4.03</v>
+      </c>
+      <c r="C43" t="s">
         <v>47</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" t="s">
         <v>167</v>
-      </c>
-      <c r="E43">
-        <v>4.03</v>
       </c>
       <c r="F43" t="s">
         <v>227</v>
@@ -2298,17 +2298,17 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>3.31</v>
+      </c>
+      <c r="C44" t="s">
         <v>48</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" t="s">
         <v>168</v>
-      </c>
-      <c r="E44">
-        <v>3.31</v>
       </c>
       <c r="F44" t="s">
         <v>228</v>
@@ -2321,17 +2321,17 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>4.08</v>
+      </c>
+      <c r="C45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" t="s">
         <v>169</v>
-      </c>
-      <c r="E45">
-        <v>4.08</v>
       </c>
       <c r="F45" t="s">
         <v>229</v>
@@ -2344,17 +2344,17 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>4.4</v>
+      </c>
+      <c r="C46" t="s">
         <v>50</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" t="s">
         <v>170</v>
-      </c>
-      <c r="E46">
-        <v>4.4</v>
       </c>
       <c r="F46" t="s">
         <v>230</v>
@@ -2367,17 +2367,17 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>4.02</v>
+      </c>
+      <c r="C47" t="s">
         <v>51</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" t="s">
         <v>171</v>
-      </c>
-      <c r="E47">
-        <v>4.02</v>
       </c>
       <c r="F47" t="s">
         <v>231</v>
@@ -2390,17 +2390,17 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>4.04</v>
+      </c>
+      <c r="C48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" t="s">
         <v>172</v>
-      </c>
-      <c r="E48">
-        <v>4.04</v>
       </c>
       <c r="F48" t="s">
         <v>232</v>
@@ -2413,17 +2413,17 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>4.08</v>
+      </c>
+      <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" t="s">
         <v>173</v>
-      </c>
-      <c r="E49">
-        <v>4.08</v>
       </c>
       <c r="F49" t="s">
         <v>233</v>
@@ -2436,17 +2436,17 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>3.84</v>
+      </c>
+      <c r="C50" t="s">
         <v>54</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" t="s">
         <v>174</v>
-      </c>
-      <c r="E50">
-        <v>3.84</v>
       </c>
       <c r="F50" t="s">
         <v>234</v>
@@ -2459,17 +2459,17 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>3.91</v>
+      </c>
+      <c r="C51" t="s">
         <v>55</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" t="s">
         <v>175</v>
-      </c>
-      <c r="E51">
-        <v>3.91</v>
       </c>
       <c r="F51" t="s">
         <v>235</v>
@@ -2482,17 +2482,17 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>4.12</v>
+      </c>
+      <c r="C52" t="s">
         <v>56</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" t="s">
         <v>176</v>
-      </c>
-      <c r="E52">
-        <v>4.12</v>
       </c>
       <c r="F52" t="s">
         <v>236</v>
@@ -2505,17 +2505,17 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>3.86</v>
+      </c>
+      <c r="C53" t="s">
         <v>57</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" t="s">
         <v>177</v>
-      </c>
-      <c r="E53">
-        <v>3.86</v>
       </c>
       <c r="F53" t="s">
         <v>237</v>
@@ -2528,17 +2528,17 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>3.74</v>
+      </c>
+      <c r="C54" t="s">
         <v>58</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" t="s">
         <v>178</v>
-      </c>
-      <c r="E54">
-        <v>3.74</v>
       </c>
       <c r="F54" t="s">
         <v>238</v>
@@ -2551,17 +2551,17 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>3.81</v>
+      </c>
+      <c r="C55" t="s">
         <v>59</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" t="s">
         <v>179</v>
-      </c>
-      <c r="E55">
-        <v>3.81</v>
       </c>
       <c r="F55" t="s">
         <v>239</v>
@@ -2574,17 +2574,17 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <v>4.18</v>
+      </c>
+      <c r="C56" t="s">
         <v>60</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" t="s">
         <v>180</v>
-      </c>
-      <c r="E56">
-        <v>4.18</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -2597,17 +2597,17 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>3.59</v>
+      </c>
+      <c r="C57" t="s">
         <v>61</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" t="s">
         <v>181</v>
-      </c>
-      <c r="E57">
-        <v>3.59</v>
       </c>
       <c r="F57" t="s">
         <v>241</v>
@@ -2620,17 +2620,17 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>4.26</v>
+      </c>
+      <c r="C58" t="s">
         <v>62</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" t="s">
         <v>182</v>
-      </c>
-      <c r="E58">
-        <v>4.26</v>
       </c>
       <c r="F58" t="s">
         <v>242</v>
@@ -2643,17 +2643,17 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>4.04</v>
+      </c>
+      <c r="C59" t="s">
         <v>63</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" t="s">
         <v>183</v>
-      </c>
-      <c r="E59">
-        <v>4.04</v>
       </c>
       <c r="F59" t="s">
         <v>243</v>
@@ -2666,17 +2666,17 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>3.94</v>
+      </c>
+      <c r="C60" t="s">
         <v>64</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" t="s">
         <v>184</v>
-      </c>
-      <c r="E60">
-        <v>3.94</v>
       </c>
       <c r="F60" t="s">
         <v>244</v>
@@ -2689,17 +2689,17 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>4.13</v>
+      </c>
+      <c r="C61" t="s">
         <v>65</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" t="s">
         <v>185</v>
-      </c>
-      <c r="E61">
-        <v>4.13</v>
       </c>
       <c r="F61" t="s">
         <v>245</v>
